--- a/Financial Plan to Buy a Car.xlsx
+++ b/Financial Plan to Buy a Car.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Chinmay\The Complete Financial Analyst\Financial Planning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA4629B9-E8B7-4BF8-8F7D-3BD38701743C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377FDE02-58EF-4A2E-A772-2CCD3424E773}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="7728" xr2:uid="{D9D629D8-9E49-4C4B-B8B2-3192D811BB30}"/>
   </bookViews>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="79">
   <si>
     <t>Client Details And Goal</t>
   </si>
@@ -343,6 +343,15 @@
   <si>
     <t>Without 10% Increase of SIP and Mutual Fund Every Year</t>
   </si>
+  <si>
+    <t>Pre-existing FD</t>
+  </si>
+  <si>
+    <t>Returns Generated</t>
+  </si>
+  <si>
+    <t>ROI</t>
+  </si>
 </sst>
 </file>
 
@@ -351,9 +360,9 @@
   <numFmts count="5">
     <numFmt numFmtId="8" formatCode="&quot;₹&quot;\ #,##0.00;[Red]&quot;₹&quot;\ \-#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="&quot;₹&quot;\ #,##0.00"/>
-    <numFmt numFmtId="177" formatCode="0.0%"/>
-    <numFmt numFmtId="182" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="&quot;₹&quot;\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -536,27 +545,21 @@
       <alignment horizontal="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -586,14 +589,11 @@
     <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -605,6 +605,44 @@
     <xf numFmtId="10" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -614,38 +652,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="44" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="0" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="182" fontId="2" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="182" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="4" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Cell Bordered" xfId="4" xr:uid="{C32D0AEE-37D8-4C46-8715-B3437CD71D8D}"/>
@@ -983,6 +997,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
@@ -1765,6 +1786,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-DE94-4F48-B65B-32BBDDCACA04}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -1801,6 +1827,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-DE94-4F48-B65B-32BBDDCACA04}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:cat>
             <c:strRef>
@@ -2454,6 +2485,274 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:pieChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Investment vs Returns</c:v>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+            </c:spPr>
+          </c:dPt>
+          <c:cat>
+            <c:strRef>
+              <c:f>('SIP and Cashflows'!$B$31,'SIP and Cashflows'!$C$31)</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Total Investment</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Returns Generated</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('SIP and Cashflows'!$B$32,'SIP and Cashflows'!$C$32)</c:f>
+              <c:numCache>
+                <c:formatCode>"₹"\ #,##0.00</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>1931530.0000000005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>789321.8266305232</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3D58-4CDF-834A-582C68BD6549}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+      </c:pieChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2654,6 +2953,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="259">
   <cs:axisTitle>
@@ -5075,6 +5414,508 @@
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx2"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
     </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
@@ -5266,6 +6107,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>114777</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>591502</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A400164-14DD-445B-9D2C-FC9FC7E838A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -5569,7 +6446,7 @@
   <dimension ref="B1:M41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G37" sqref="G36:G37"/>
+      <selection activeCell="AC51" sqref="AC51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5590,19 +6467,19 @@
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>30</v>
       </c>
     </row>
@@ -5728,16 +6605,16 @@
       </c>
     </row>
     <row r="21" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="52"/>
     </row>
     <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <f>20000*6</f>
         <v>120000</v>
       </c>
@@ -5746,113 +6623,113 @@
       <c r="B23" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>0</v>
       </c>
-      <c r="L23" s="48"/>
-      <c r="M23" s="37"/>
+      <c r="L23" s="42"/>
+      <c r="M23" s="31"/>
     </row>
     <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>1000000</v>
       </c>
     </row>
     <row r="26" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="52" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="6"/>
+      <c r="C26" s="52"/>
     </row>
     <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="7">
+      <c r="C27" s="5">
         <v>25000</v>
       </c>
     </row>
     <row r="28" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="7">
         <f>PMT(6.5%/12,12,0,C22,1)</f>
         <v>-9653.281427501468</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="50" t="s">
         <v>70</v>
       </c>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="L28" s="48"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="46"/>
+      <c r="L28" s="42"/>
     </row>
     <row r="29" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="7">
+      <c r="C29" s="5">
         <f>C27+C28</f>
         <v>15346.718572498532</v>
       </c>
-      <c r="L29" s="7"/>
+      <c r="L29" s="5"/>
     </row>
     <row r="30" spans="2:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="7">
         <f>PMT(14%/12,5*12,0,C24,1)</f>
         <v>-11467.793261338744</v>
       </c>
-      <c r="E30" s="58" t="s">
+      <c r="E30" s="54" t="s">
         <v>71</v>
       </c>
-      <c r="F30" s="58"/>
-      <c r="G30" s="58"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="58"/>
-      <c r="L30" s="48"/>
+      <c r="F30" s="54"/>
+      <c r="G30" s="54"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="54"/>
+      <c r="L30" s="42"/>
     </row>
     <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C31" s="5">
         <f>C29+C30</f>
         <v>3878.9253111597882</v>
       </c>
     </row>
     <row r="32" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C32" s="7"/>
+      <c r="C32" s="5"/>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C33" s="7"/>
+      <c r="C33" s="5"/>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C35" s="7"/>
+      <c r="C35" s="5"/>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C36" s="7"/>
+      <c r="C36" s="5"/>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C37" s="7"/>
+      <c r="C37" s="5"/>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C38" s="7"/>
+      <c r="C38" s="5"/>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C39" s="7"/>
+      <c r="C39" s="5"/>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C40" s="7"/>
+      <c r="C40" s="5"/>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.3">
-      <c r="C41" s="7"/>
+      <c r="C41" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -5881,76 +6758,76 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" style="10" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.21875" style="10" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="10" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="10"/>
+    <col min="1" max="1" width="6.5546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="15.21875" style="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.21875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="8"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="13">
+      <c r="C4" s="11">
         <v>0.14000000000000001</v>
       </c>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C5" s="11"/>
+      <c r="C5" s="9"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="13">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="D7" s="22">
+      <c r="D7" s="20">
         <v>1.5668105328621632E-2</v>
       </c>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="13">
         <v>0.15</v>
       </c>
-      <c r="D8" s="22">
+      <c r="D8" s="20">
         <v>0.73631322114831443</v>
       </c>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="22">
         <v>0.1</v>
       </c>
-      <c r="D9" s="22">
+      <c r="D9" s="20">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="12" t="s">
+      <c r="B10" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="C10" s="20">
+      <c r="C10" s="18">
         <v>0.12</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="21">
         <v>0.17801867352309261</v>
       </c>
     </row>
@@ -5958,8 +6835,8 @@
       <c r="B11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="22">
+      <c r="C11" s="16"/>
+      <c r="D11" s="20">
         <f>SUM(D7:D10)</f>
         <v>1.0000000000000286</v>
       </c>
@@ -5968,172 +6845,172 @@
       <c r="B12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="22">
+      <c r="C12" s="16"/>
+      <c r="D12" s="20">
         <f>C7*D7+C8*D8+C9*D9+C10*D10</f>
         <v>0.13999999999999352</v>
       </c>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C13" s="18"/>
-      <c r="M13" s="11"/>
+      <c r="C13" s="16"/>
+      <c r="M13" s="9"/>
     </row>
     <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="18"/>
-      <c r="M14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="15" spans="2:13" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="18"/>
-      <c r="M15" s="29"/>
+      <c r="C15" s="16"/>
+      <c r="M15" s="26"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="C16" s="18"/>
+      <c r="C16" s="16"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="14" t="s">
+      <c r="B17" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="14" t="s">
+      <c r="E17" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="12" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="16">
         <v>3.2</v>
       </c>
-      <c r="D18" s="18" t="s">
+      <c r="D18" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="15">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="16">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="16">
         <v>1.49</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D19" s="16">
         <v>0.21</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="15">
         <v>0.1143</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="16">
         <v>0.75</v>
       </c>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="16">
         <v>0.9</v>
       </c>
-      <c r="D20" s="18">
+      <c r="D20" s="16">
         <v>0.06</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="15">
         <v>9.1800000000000007E-2</v>
       </c>
-      <c r="F20" s="18">
+      <c r="F20" s="16">
         <v>0.94</v>
       </c>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="16">
         <v>0.6</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D21" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="13">
         <v>0.13</v>
       </c>
-      <c r="F21" s="18">
+      <c r="F21" s="16">
         <v>0.1</v>
       </c>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
     </row>
     <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="D23" s="33">
+      <c r="D23" s="30">
         <f>SQRT((D7*E18)^2+(D8*E19)^2+(D9*E20)^2+(D10*E21)^2)</f>
         <v>8.7520731012897826E-2</v>
       </c>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="57"/>
     </row>
     <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B27" s="10" t="s">
+      <c r="B27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="21">
+      <c r="C27" s="19">
         <f>(D12-6%)/D23</f>
         <v>0.91406914766518588</v>
       </c>
     </row>
     <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="10" t="s">
+      <c r="B28" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="21">
+      <c r="C28" s="19">
         <f>(D23-6%)/C30</f>
         <v>4.3282697288771071E-2</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B29" s="10" t="s">
+      <c r="B29" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="21">
+      <c r="C29" s="19">
         <f>D23</f>
         <v>8.7520731012897826E-2</v>
       </c>
     </row>
     <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="C30" s="21">
+      <c r="C30" s="19">
         <f>D7*F18+D8*F19+D9*F20+D10*F21</f>
         <v>0.63583678321354509</v>
       </c>
@@ -6148,17 +7025,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{557FA9D9-36E9-4286-9479-4CCD08E42C97}">
-  <dimension ref="B1:R27"/>
+  <dimension ref="B1:R32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M31" sqref="M31"/>
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.21875" style="1" bestFit="1" customWidth="1"/>
@@ -6176,653 +7053,653 @@
   <sheetData>
     <row r="1" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="58" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="56"/>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
-      <c r="M2" s="56" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="M2" s="58" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="56"/>
-      <c r="O2" s="56"/>
-      <c r="P2" s="56"/>
-      <c r="Q2" s="56"/>
+      <c r="N2" s="58"/>
+      <c r="O2" s="58"/>
+      <c r="P2" s="58"/>
+      <c r="Q2" s="58"/>
     </row>
     <row r="4" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="N4" s="14" t="s">
+      <c r="N4" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="O4" s="14" t="s">
+      <c r="O4" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P4" s="14" t="s">
+      <c r="P4" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="Q4" s="14" t="s">
+      <c r="Q4" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="R4" s="41"/>
+      <c r="R4" s="35"/>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B5" s="3"/>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="42">
+      <c r="D5" s="36">
         <f>-1*Dashboard!C28*12</f>
         <v>115839.37713001762</v>
       </c>
-      <c r="E5" s="42">
+      <c r="E5" s="36">
         <f>D5</f>
         <v>115839.37713001762</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="36">
         <f>FV(6.5%/12,12,Dashboard!C28,0,1)</f>
         <v>119999.99999999863</v>
       </c>
-      <c r="G5" s="40"/>
+      <c r="G5" s="34"/>
       <c r="M5" s="3"/>
-      <c r="N5" s="41" t="s">
+      <c r="N5" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="42">
+      <c r="O5" s="36">
         <f>D5</f>
         <v>115839.37713001762</v>
       </c>
-      <c r="P5" s="42">
+      <c r="P5" s="36">
         <f>O5</f>
         <v>115839.37713001762</v>
       </c>
-      <c r="Q5" s="42">
+      <c r="Q5" s="36">
         <f>FV(6.5%/12,12,-O5/12,0,1)</f>
         <v>119999.99999999863</v>
       </c>
-      <c r="R5" s="41"/>
+      <c r="R5" s="35"/>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="41" t="s">
+      <c r="C6" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D6" s="42">
+      <c r="D6" s="36">
         <f>-1*Dashboard!C30*12</f>
         <v>137613.51913606492</v>
       </c>
-      <c r="E6" s="42">
+      <c r="E6" s="36">
         <f>D6</f>
         <v>137613.51913606492</v>
       </c>
-      <c r="F6" s="42">
+      <c r="F6" s="36">
         <f>FV(14%/12,12,-D6/12,0,1)</f>
         <v>148508.92490273333</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="M6" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="O6" s="42">
+      <c r="O6" s="36">
         <f>-1*Dashboard!C30*12</f>
         <v>137613.51913606492</v>
       </c>
-      <c r="P6" s="42">
+      <c r="P6" s="36">
         <f>O6</f>
         <v>137613.51913606492</v>
       </c>
-      <c r="Q6" s="42">
+      <c r="Q6" s="36">
         <f>FV(14%/12,12,-O6/12,0,1)</f>
         <v>148508.92490273333</v>
       </c>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B7" s="46"/>
-      <c r="C7" s="43" t="s">
+      <c r="B7" s="40"/>
+      <c r="C7" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="38">
         <f>Dashboard!C31*12</f>
         <v>46547.103733917458</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="38">
         <f>D7</f>
         <v>46547.103733917458</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="38">
         <f>FV(16%/12,12,-D7/12,0,1)</f>
         <v>50785.142540244575</v>
       </c>
-      <c r="L7" s="37"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="43" t="s">
+      <c r="L7" s="31"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O7" s="44">
+      <c r="O7" s="38">
         <f>D7</f>
         <v>46547.103733917458</v>
       </c>
-      <c r="P7" s="44">
+      <c r="P7" s="38">
         <f>O7</f>
         <v>46547.103733917458</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="38">
         <f>FV(16%/12,12,-O7/12,0,1)</f>
         <v>50785.142540244575</v>
       </c>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B8" s="3"/>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="42">
+      <c r="D8" s="36">
         <v>0</v>
       </c>
-      <c r="E8" s="42">
+      <c r="E8" s="36">
         <f>E5</f>
         <v>115839.37713001762</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="36">
         <f>FV(6.5%,1,0,-F5,1)</f>
         <v>127799.99999999853</v>
       </c>
-      <c r="L8" s="37"/>
+      <c r="L8" s="31"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O8" s="42">
+      <c r="O8" s="36">
         <v>0</v>
       </c>
-      <c r="P8" s="42">
+      <c r="P8" s="36">
         <f>P5</f>
         <v>115839.37713001762</v>
       </c>
-      <c r="Q8" s="42">
+      <c r="Q8" s="36">
         <f>FV(6.5%,1,0,-Q5,1)</f>
         <v>127799.99999999853</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="42">
+      <c r="D9" s="36">
         <f>D6*1.1</f>
         <v>151374.87104967143</v>
       </c>
-      <c r="E9" s="42">
+      <c r="E9" s="36">
         <f>D9+E6</f>
         <v>288988.39018573635</v>
       </c>
-      <c r="F9" s="42">
+      <c r="F9" s="36">
         <f>FV(14%/12,12,-(D9/12),-'SIP and Cashflows'!F6,1)</f>
         <v>334047.36649608763</v>
       </c>
-      <c r="L9" s="37"/>
-      <c r="M9" s="45" t="s">
+      <c r="L9" s="31"/>
+      <c r="M9" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="N9" s="41" t="s">
+      <c r="N9" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="O9" s="42">
+      <c r="O9" s="36">
         <f>O6</f>
         <v>137613.51913606492</v>
       </c>
-      <c r="P9" s="42">
+      <c r="P9" s="36">
         <f>O9+P6</f>
         <v>275227.03827212984</v>
       </c>
-      <c r="Q9" s="42">
+      <c r="Q9" s="36">
         <f>FV(14%/12,12,-(O9/12),-'SIP and Cashflows'!Q6,1)</f>
         <v>319196.47400581423</v>
       </c>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B10" s="46"/>
-      <c r="C10" s="43" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="38">
         <f>(D7*1.1+D5*1.1)</f>
         <v>178625.1289503286</v>
       </c>
-      <c r="E10" s="44">
+      <c r="E10" s="38">
         <f>E7+D10</f>
         <v>225172.23268424606</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="38">
         <f>FV(16%/12,12,-(D10/12),-'SIP and Cashflows'!F7,1)</f>
         <v>254422.59875667386</v>
       </c>
-      <c r="L10" s="37"/>
-      <c r="M10" s="46"/>
-      <c r="N10" s="43" t="s">
+      <c r="L10" s="31"/>
+      <c r="M10" s="40"/>
+      <c r="N10" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O10" s="44">
+      <c r="O10" s="38">
         <f>O7</f>
         <v>46547.103733917458</v>
       </c>
-      <c r="P10" s="44">
+      <c r="P10" s="38">
         <f>P7+O10</f>
         <v>93094.207467834916</v>
       </c>
-      <c r="Q10" s="44">
+      <c r="Q10" s="38">
         <f>FV(16%/12,12,-(O10/12),-'SIP and Cashflows'!Q7,1)</f>
         <v>110319.08212558794</v>
       </c>
-      <c r="R10" s="41"/>
+      <c r="R10" s="35"/>
     </row>
     <row r="11" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B11" s="3"/>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="42">
+      <c r="D11" s="36">
         <v>0</v>
       </c>
-      <c r="E11" s="42">
+      <c r="E11" s="36">
         <f>E8</f>
         <v>115839.37713001762</v>
       </c>
-      <c r="F11" s="42">
+      <c r="F11" s="36">
         <f>FV(6.5%,1,0,-F8,1)</f>
         <v>136106.99999999843</v>
       </c>
-      <c r="L11" s="37"/>
+      <c r="L11" s="31"/>
       <c r="M11" s="3"/>
-      <c r="N11" s="41" t="s">
+      <c r="N11" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O11" s="42">
+      <c r="O11" s="36">
         <v>0</v>
       </c>
-      <c r="P11" s="42">
+      <c r="P11" s="36">
         <f>P8</f>
         <v>115839.37713001762</v>
       </c>
-      <c r="Q11" s="42">
+      <c r="Q11" s="36">
         <f>FV(6.5%,1,0,-Q8,1)</f>
         <v>136106.99999999843</v>
       </c>
-      <c r="R11" s="41"/>
+      <c r="R11" s="35"/>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D12" s="42">
+      <c r="D12" s="36">
         <f>D9*1.1</f>
         <v>166512.35815463858</v>
       </c>
-      <c r="E12" s="42">
+      <c r="E12" s="36">
         <f>D12+E9</f>
         <v>455500.74834037491</v>
       </c>
-      <c r="F12" s="42">
+      <c r="F12" s="36">
         <f>FV(14%/12,12,-(D12/12),-'SIP and Cashflows'!F9,1)</f>
         <v>563630.47719222785</v>
       </c>
-      <c r="M12" s="45" t="s">
+      <c r="M12" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="N12" s="41" t="s">
+      <c r="N12" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="O12" s="42">
+      <c r="O12" s="36">
         <f>O9</f>
         <v>137613.51913606492</v>
       </c>
-      <c r="P12" s="42">
+      <c r="P12" s="36">
         <f>O12+P9</f>
         <v>412840.55740819476</v>
       </c>
-      <c r="Q12" s="42">
+      <c r="Q12" s="36">
         <f>FV(14%/12,12,-(O12/12),-'SIP and Cashflows'!Q9,1)</f>
         <v>515374.84805234557</v>
       </c>
-      <c r="R12" s="41"/>
+      <c r="R12" s="35"/>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B13" s="46"/>
-      <c r="C13" s="43" t="s">
+      <c r="B13" s="40"/>
+      <c r="C13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="44">
+      <c r="D13" s="38">
         <f>D10*1.1</f>
         <v>196487.64184536148</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="38">
         <f>E10+D13</f>
         <v>421659.87452960754</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="38">
         <f>FV(16%/12,12,-(D13/12),-'SIP and Cashflows'!F10,1)</f>
         <v>512629.70802804769</v>
       </c>
-      <c r="M13" s="46"/>
-      <c r="N13" s="43" t="s">
+      <c r="M13" s="40"/>
+      <c r="N13" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O13" s="44">
+      <c r="O13" s="38">
         <f>O10</f>
         <v>46547.103733917458</v>
       </c>
-      <c r="P13" s="44">
+      <c r="P13" s="38">
         <f>P10+O13</f>
         <v>139641.31120175237</v>
       </c>
-      <c r="Q13" s="44">
+      <c r="Q13" s="38">
         <f>FV(16%/12,12,-(O13/12),-'SIP and Cashflows'!Q10,1)</f>
         <v>180108.98100679417</v>
       </c>
-      <c r="R13" s="41"/>
+      <c r="R13" s="35"/>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B14" s="3"/>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D14" s="42">
+      <c r="D14" s="36">
         <v>0</v>
       </c>
-      <c r="E14" s="42">
+      <c r="E14" s="36">
         <f>E11</f>
         <v>115839.37713001762</v>
       </c>
-      <c r="F14" s="42">
+      <c r="F14" s="36">
         <f>FV(6.5%,1,0,-F11,1)</f>
         <v>144953.95499999833</v>
       </c>
       <c r="M14" s="3"/>
-      <c r="N14" s="41" t="s">
+      <c r="N14" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O14" s="42">
+      <c r="O14" s="36">
         <v>0</v>
       </c>
-      <c r="P14" s="42">
+      <c r="P14" s="36">
         <f>P11</f>
         <v>115839.37713001762</v>
       </c>
-      <c r="Q14" s="42">
+      <c r="Q14" s="36">
         <f>FV(6.5%,1,0,-Q11,1)</f>
         <v>144953.95499999833</v>
       </c>
-      <c r="R14" s="41"/>
+      <c r="R14" s="35"/>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B15" s="45" t="s">
+      <c r="B15" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D15" s="42">
+      <c r="D15" s="36">
         <f>D12*1.1</f>
         <v>183163.59397010246</v>
       </c>
-      <c r="E15" s="42">
+      <c r="E15" s="36">
         <f>D15+E12</f>
         <v>638664.3423104774</v>
       </c>
-      <c r="F15" s="42">
+      <c r="F15" s="36">
         <f>FV(14%/12,12,-(D15/12),-'SIP and Cashflows'!F12,1)</f>
         <v>845469.57542465185</v>
       </c>
-      <c r="M15" s="45" t="s">
+      <c r="M15" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="N15" s="41" t="s">
+      <c r="N15" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="O15" s="42">
+      <c r="O15" s="36">
         <f>O12</f>
         <v>137613.51913606492</v>
       </c>
-      <c r="P15" s="42">
+      <c r="P15" s="36">
         <f>O15+P12</f>
         <v>550454.07654425967</v>
       </c>
-      <c r="Q15" s="42">
+      <c r="Q15" s="36">
         <f>FV(14%/12,12,-(O15/12),-'SIP and Cashflows'!Q12,1)</f>
         <v>740850.89856554673</v>
       </c>
-      <c r="R15" s="41"/>
+      <c r="R15" s="35"/>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B16" s="46"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="40"/>
+      <c r="C16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="44">
+      <c r="D16" s="38">
         <f>D13*1.1</f>
         <v>216136.40602989763</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="38">
         <f>E13+D16</f>
         <v>637796.2805595051</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="38">
         <f>FV(16%/12,12,-(D16/12),-'SIP and Cashflows'!F13,1)</f>
         <v>836756.11463856464</v>
       </c>
-      <c r="M16" s="46"/>
-      <c r="N16" s="43" t="s">
+      <c r="M16" s="40"/>
+      <c r="N16" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O16" s="44">
+      <c r="O16" s="38">
         <f>O13</f>
         <v>46547.103733917458</v>
       </c>
-      <c r="P16" s="44">
+      <c r="P16" s="38">
         <f>P13+O16</f>
         <v>186188.41493566983</v>
       </c>
-      <c r="Q16" s="44">
+      <c r="Q16" s="38">
         <f>FV(16%/12,12,-(O16/12),-'SIP and Cashflows'!Q13,1)</f>
         <v>261921.6414786721</v>
       </c>
-      <c r="R16" s="41"/>
+      <c r="R16" s="35"/>
     </row>
     <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" s="3"/>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="42">
+      <c r="D17" s="36">
         <v>0</v>
       </c>
-      <c r="E17" s="42">
+      <c r="E17" s="36">
         <f>E14</f>
         <v>115839.37713001762</v>
       </c>
-      <c r="F17" s="42">
+      <c r="F17" s="36">
         <f>FV(6.5%,1,0,-F14,1)</f>
         <v>154375.96207499821</v>
       </c>
       <c r="M17" s="3"/>
-      <c r="N17" s="41" t="s">
+      <c r="N17" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O17" s="42">
+      <c r="O17" s="36">
         <v>0</v>
       </c>
-      <c r="P17" s="42">
+      <c r="P17" s="36">
         <f>P14</f>
         <v>115839.37713001762</v>
       </c>
-      <c r="Q17" s="42">
+      <c r="Q17" s="36">
         <f>FV(6.5%,1,0,-Q14,1)</f>
         <v>154375.96207499821</v>
       </c>
-      <c r="R17" s="41"/>
+      <c r="R17" s="35"/>
     </row>
     <row r="18" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="41" t="s">
+      <c r="C18" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="D18" s="42">
+      <c r="D18" s="36">
         <f>D15*1.1</f>
         <v>201479.95336711273</v>
       </c>
-      <c r="E18" s="42">
+      <c r="E18" s="36">
         <f>D18+E15</f>
         <v>840144.29567759018</v>
       </c>
-      <c r="F18" s="42">
+      <c r="F18" s="36">
         <f>FV(14%/12,12,-(D18/12),-'SIP and Cashflows'!F15,1)</f>
         <v>1189165.6344015752</v>
       </c>
-      <c r="M18" s="45" t="s">
+      <c r="M18" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="N18" s="41" t="s">
+      <c r="N18" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="O18" s="42">
+      <c r="O18" s="36">
         <f>O15</f>
         <v>137613.51913606492</v>
       </c>
-      <c r="P18" s="42">
+      <c r="P18" s="36">
         <f>O18+P15</f>
         <v>688067.59568032459</v>
       </c>
-      <c r="Q18" s="42">
+      <c r="Q18" s="36">
         <f>FV(14%/12,12,-(O18/12),-'SIP and Cashflows'!Q15,1)</f>
         <v>1000000.0000000049</v>
       </c>
-      <c r="R18" s="41"/>
+      <c r="R18" s="35"/>
     </row>
     <row r="19" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B19" s="51"/>
-      <c r="C19" s="43" t="s">
+      <c r="B19" s="45"/>
+      <c r="C19" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="D19" s="44">
+      <c r="D19" s="38">
         <f>D16*1.1</f>
         <v>237750.04663288742</v>
       </c>
-      <c r="E19" s="44">
+      <c r="E19" s="38">
         <f>E16+D19</f>
         <v>875546.32719239255</v>
       </c>
-      <c r="F19" s="44">
+      <c r="F19" s="38">
         <f>FV(16%/12,12,-(D19/12),-'SIP and Cashflows'!F16,1)</f>
         <v>1240301.5638123876</v>
       </c>
-      <c r="M19" s="51"/>
-      <c r="N19" s="43" t="s">
+      <c r="M19" s="45"/>
+      <c r="N19" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="O19" s="44">
+      <c r="O19" s="38">
         <f>O16</f>
         <v>46547.103733917458</v>
       </c>
-      <c r="P19" s="44">
+      <c r="P19" s="38">
         <f>P16+O19</f>
         <v>232735.5186695873</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="Q19" s="38">
         <f>FV(16%/12,12,-(O19/12),-'SIP and Cashflows'!Q16,1)</f>
         <v>357828.23427772295</v>
       </c>
-      <c r="R19" s="41"/>
+      <c r="R19" s="35"/>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="R20" s="41"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="R20" s="35"/>
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="D21" s="38"/>
-      <c r="E21" s="38"/>
-      <c r="F21" s="38"/>
-      <c r="M21" s="41"/>
-      <c r="N21" s="41"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="41"/>
-      <c r="R21" s="41"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="36"/>
+      <c r="P21" s="36"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="M22" s="49"/>
-      <c r="N22" s="49"/>
-      <c r="O22" s="50"/>
-      <c r="P22" s="50"/>
-      <c r="Q22" s="50"/>
-      <c r="R22" s="49"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="44"/>
+      <c r="P22" s="44"/>
+      <c r="Q22" s="44"/>
+      <c r="R22" s="43"/>
     </row>
     <row r="23" spans="2:18" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
+      <c r="B23" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="D23" s="47" t="s">
+      <c r="D23" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="47" t="s">
+      <c r="E23" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="F23" s="47" t="s">
+      <c r="F23" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="G23" s="14" t="s">
+      <c r="G23" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="M23" s="14" t="s">
+      <c r="M23" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="N23" s="14" t="s">
+      <c r="N23" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="O23" s="47" t="s">
+      <c r="O23" s="41" t="s">
         <v>57</v>
       </c>
-      <c r="P23" s="47" t="s">
+      <c r="P23" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="47" t="s">
+      <c r="Q23" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="R23" s="14" t="s">
+      <c r="R23" s="12" t="s">
         <v>68</v>
       </c>
     </row>
@@ -6830,46 +7707,46 @@
       <c r="B24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="39">
+      <c r="C24" s="33">
         <f>D5</f>
         <v>115839.37713001762</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="33">
         <f>F17</f>
         <v>154375.96207499821</v>
       </c>
-      <c r="E24" s="39">
+      <c r="E24" s="33">
         <f>D24-C24</f>
         <v>38536.584944980597</v>
       </c>
-      <c r="F24" s="28">
+      <c r="F24" s="25">
         <f>D24/C24-1</f>
         <v>0.33267258422606427</v>
       </c>
-      <c r="G24" s="28">
+      <c r="G24" s="25">
         <f>((1+F24)^(1/5)-1)</f>
         <v>5.9118838051452016E-2</v>
       </c>
       <c r="M24" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="39">
+      <c r="N24" s="33">
         <f>O5</f>
         <v>115839.37713001762</v>
       </c>
-      <c r="O24" s="39">
+      <c r="O24" s="33">
         <f>Q17</f>
         <v>154375.96207499821</v>
       </c>
-      <c r="P24" s="39">
+      <c r="P24" s="33">
         <f>O24-N24</f>
         <v>38536.584944980597</v>
       </c>
-      <c r="Q24" s="28">
+      <c r="Q24" s="25">
         <f>O24/N24-1</f>
         <v>0.33267258422606427</v>
       </c>
-      <c r="R24" s="28">
+      <c r="R24" s="25">
         <f>((1+Q24)^(1/5)-1)</f>
         <v>5.9118838051452016E-2</v>
       </c>
@@ -6878,46 +7755,46 @@
       <c r="B25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C25" s="39">
+      <c r="C25" s="33">
         <f>D6+D9+D12+D15+D18</f>
         <v>840144.29567759018</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="33">
         <f>F18</f>
         <v>1189165.6344015752</v>
       </c>
-      <c r="E25" s="39">
+      <c r="E25" s="33">
         <f t="shared" ref="E25:E26" si="0">D25-C25</f>
         <v>349021.33872398501</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="25">
         <f>D25/C25-1</f>
         <v>0.41543023087777264</v>
       </c>
-      <c r="G25" s="28">
-        <f t="shared" ref="G25:G27" si="1">((1+F25)^(1/5)-1)</f>
+      <c r="G25" s="25">
+        <f t="shared" ref="G25:G29" si="1">((1+F25)^(1/5)-1)</f>
         <v>7.1957811568791108E-2</v>
       </c>
       <c r="M25" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="N25" s="39">
+      <c r="N25" s="33">
         <f>O6+O9+O12+O15+O18</f>
         <v>688067.59568032459</v>
       </c>
-      <c r="O25" s="39">
+      <c r="O25" s="33">
         <f>Q18</f>
         <v>1000000.0000000049</v>
       </c>
-      <c r="P25" s="39">
+      <c r="P25" s="33">
         <f t="shared" ref="P25:P26" si="2">O25-N25</f>
         <v>311932.4043196803</v>
       </c>
-      <c r="Q25" s="28">
+      <c r="Q25" s="25">
         <f>O25/N25-1</f>
         <v>0.45334558156493054</v>
       </c>
-      <c r="R25" s="28">
+      <c r="R25" s="25">
         <f t="shared" ref="R25:R27" si="3">((1+Q25)^(1/5)-1)</f>
         <v>7.7640187852009435E-2</v>
       </c>
@@ -6926,96 +7803,152 @@
       <c r="B26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C26" s="39">
+      <c r="C26" s="33">
         <f>D7+D10+D13+D16+D19</f>
         <v>875546.32719239255</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="33">
         <f>F19</f>
         <v>1240301.5638123876</v>
       </c>
-      <c r="E26" s="39">
+      <c r="E26" s="33">
         <f t="shared" si="0"/>
         <v>364755.23661999509</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="25">
         <f>D26/C26-1</f>
         <v>0.41660301150443146</v>
       </c>
-      <c r="G26" s="28">
+      <c r="G26" s="25">
         <f t="shared" si="1"/>
         <v>7.2135390777242625E-2</v>
       </c>
       <c r="M26" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="N26" s="39">
+      <c r="N26" s="33">
         <f>O7+O10+O13+O16+O19</f>
         <v>232735.5186695873</v>
       </c>
-      <c r="O26" s="39">
+      <c r="O26" s="33">
         <f>Q19</f>
         <v>357828.23427772295</v>
       </c>
-      <c r="P26" s="39">
+      <c r="P26" s="33">
         <f t="shared" si="2"/>
         <v>125092.71560813565</v>
       </c>
-      <c r="Q26" s="28">
+      <c r="Q26" s="25">
         <f>O26/N26-1</f>
         <v>0.53748871819487398</v>
       </c>
-      <c r="R26" s="28">
+      <c r="R26" s="25">
         <f t="shared" si="3"/>
         <v>8.9839106447926698E-2</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B27" s="53" t="s">
+      <c r="B27" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="C27" s="54">
+      <c r="C27" s="48">
         <f>SUM(C24:C26)</f>
         <v>1831530.0000000005</v>
       </c>
-      <c r="D27" s="54">
+      <c r="D27" s="48">
         <f t="shared" ref="D27:E27" si="4">SUM(D24:D26)</f>
         <v>2583843.1602889611</v>
       </c>
-      <c r="E27" s="54">
+      <c r="E27" s="48">
         <f t="shared" si="4"/>
         <v>752313.16028896067</v>
       </c>
-      <c r="F27" s="55">
+      <c r="F27" s="49">
         <f>D27/C27-1</f>
         <v>0.41075666808021727</v>
       </c>
-      <c r="G27" s="55">
+      <c r="G27" s="49">
         <f t="shared" si="1"/>
         <v>7.1248982276009398E-2</v>
       </c>
-      <c r="M27" s="53" t="s">
+      <c r="M27" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="N27" s="54">
+      <c r="N27" s="48">
         <f>SUM(N24:N26)</f>
         <v>1036642.4914799295</v>
       </c>
-      <c r="O27" s="54">
+      <c r="O27" s="48">
         <f t="shared" ref="O27" si="5">SUM(O24:O26)</f>
         <v>1512204.1963527261</v>
       </c>
-      <c r="P27" s="54">
+      <c r="P27" s="48">
         <f t="shared" ref="P27" si="6">SUM(P24:P26)</f>
         <v>475561.70487279654</v>
       </c>
-      <c r="Q27" s="55">
+      <c r="Q27" s="49">
         <f>O27/N27-1</f>
         <v>0.45875189255832649</v>
       </c>
-      <c r="R27" s="55">
+      <c r="R27" s="49">
         <f t="shared" si="3"/>
         <v>7.8440741885156262E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="59">
+        <v>100000</v>
+      </c>
+      <c r="D29" s="60">
+        <f>FV(6.5%,5,0,-C29)</f>
+        <v>137008.66634156246</v>
+      </c>
+      <c r="E29" s="60">
+        <f>D29-C29</f>
+        <v>37008.666341562464</v>
+      </c>
+      <c r="F29" s="61">
+        <f>D29/C29-1</f>
+        <v>0.37008666341562457</v>
+      </c>
+      <c r="G29" s="61">
+        <f t="shared" si="1"/>
+        <v>6.4999999999999947E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B31" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="32" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B32" s="63">
+        <f>C27+C29</f>
+        <v>1931530.0000000005</v>
+      </c>
+      <c r="C32" s="63">
+        <f>E27+E29</f>
+        <v>789321.8266305232</v>
+      </c>
+      <c r="D32" s="62">
+        <f>C32/B32</f>
+        <v>0.40865108314679194</v>
+      </c>
+      <c r="E32" s="62">
+        <f>(1+D32)^(1/5)-1</f>
+        <v>7.0929018728580706E-2</v>
       </c>
     </row>
   </sheetData>
